--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>336036.4905237811</v>
+        <v>333473.4701878764</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>207.6427353624353</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>323.7987001996318</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>208.6868171656595</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>69.04987319639378</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>29.71759195433578</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>130.4821714065995</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>30.92053976370985</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>175.8169876492154</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1105,19 +1105,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>133.3686732984696</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>261.9657095888484</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>363.0431053830545</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>215.3532700624135</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>248.3377549407307</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>110.2285171823722</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6315337216638</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892487</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>185.6920487814947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>20.9284728855285</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>36.22494343870233</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>24.8326660635311</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>1.839588425939337</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>106.3612762946734</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>169.2764851340014</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>58.24570521548602</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>49.33106662725105</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>80.08971311158706</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>59.45282559760403</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583779</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>46.86766651429448</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>186.8063084124839</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1373.778212738966</v>
+        <v>1223.1725826085</v>
       </c>
       <c r="C2" t="n">
-        <v>1004.815695798554</v>
+        <v>1223.1725826085</v>
       </c>
       <c r="D2" t="n">
-        <v>1004.815695798554</v>
+        <v>1223.1725826085</v>
       </c>
       <c r="E2" t="n">
-        <v>677.7463016575118</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="F2" t="n">
-        <v>677.7463016575118</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>262.0415513818006</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4346,7 +4346,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>2100.01262627016</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W2" t="n">
-        <v>1747.243971000046</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X2" t="n">
-        <v>1373.778212738966</v>
+        <v>1502.660066001257</v>
       </c>
       <c r="Y2" t="n">
-        <v>1373.778212738966</v>
+        <v>1432.912719338233</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783102</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.9231348479804</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="C4" t="n">
-        <v>644.9053651971361</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D4" t="n">
-        <v>494.7887257848004</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E4" t="n">
-        <v>346.8756322024072</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4486,25 +4486,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234358</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U4" t="n">
-        <v>1439.817372234358</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="V4" t="n">
-        <v>1185.132884028471</v>
+        <v>1308.017199096379</v>
       </c>
       <c r="W4" t="n">
-        <v>895.7157139915105</v>
+        <v>1018.600029059419</v>
       </c>
       <c r="X4" t="n">
-        <v>895.7157139915105</v>
+        <v>790.6104781614013</v>
       </c>
       <c r="Y4" t="n">
-        <v>674.9231348479804</v>
+        <v>569.8178990178711</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1330.099343395678</v>
+        <v>1677.574522601424</v>
       </c>
       <c r="C5" t="n">
-        <v>1330.099343395678</v>
+        <v>1308.612005661012</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.099343395678</v>
+        <v>950.3463070542618</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>564.5580544560175</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4565,16 +4565,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2051.30156271506</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>1720.23867537149</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>1720.23867537149</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X5" t="n">
-        <v>1720.23867537149</v>
+        <v>2064.174362665546</v>
       </c>
       <c r="Y5" t="n">
-        <v>1330.099343395678</v>
+        <v>2064.174362665546</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>792.8801184070676</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="C7" t="n">
-        <v>623.9439354791607</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="D7" t="n">
-        <v>473.8272960668249</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E7" t="n">
-        <v>473.8272960668249</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
         <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1202.518134135325</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1202.518134135325</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.518134135325</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W7" t="n">
-        <v>1202.518134135325</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="X7" t="n">
-        <v>974.5285832373073</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="Y7" t="n">
-        <v>974.5285832373073</v>
+        <v>305.8408313751036</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1622.544763526515</v>
+        <v>909.233203697441</v>
       </c>
       <c r="C8" t="n">
-        <v>1253.582246586104</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="D8" t="n">
-        <v>895.3165479793531</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="E8" t="n">
-        <v>895.3165479793531</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="F8" t="n">
-        <v>484.3306431897456</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G8" t="n">
         <v>117.6204357321147</v>
@@ -4802,16 +4802,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796629</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.313418796629</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W8" t="n">
-        <v>1622.544763526515</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X8" t="n">
-        <v>1622.544763526515</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y8" t="n">
-        <v>1622.544763526515</v>
+        <v>909.233203697441</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143496</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458213</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>772.8067472977393</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="C10" t="n">
-        <v>603.8705643698324</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>453.7539249574967</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>305.8408313751036</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.862713590079</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U10" t="n">
-        <v>1533.862713590079</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="V10" t="n">
-        <v>1283.01649647823</v>
+        <v>1185.132884028472</v>
       </c>
       <c r="W10" t="n">
-        <v>993.5993264412695</v>
+        <v>1185.132884028472</v>
       </c>
       <c r="X10" t="n">
-        <v>993.5993264412695</v>
+        <v>957.1433331304543</v>
       </c>
       <c r="Y10" t="n">
-        <v>772.8067472977393</v>
+        <v>845.8013965826035</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452614</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>983.3556038098187</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>814.4194208819118</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>664.3027814695761</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>516.389687887183</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>369.4997403892726</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5230,19 +5230,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>2157.887856924453</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1903.203368718566</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1613.786198681606</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>1385.796647783588</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>1165.004068640058</v>
       </c>
     </row>
     <row r="14">
@@ -5267,37 +5267,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>120.680066384834</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>1053.171308869725</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>884.2351259418183</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474262</v>
+        <v>734.1184865294825</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>586.2053929470894</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>439.315445449179</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>272.119346164059</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>130.4075150062571</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1455.612352843495</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>1234.819773699965</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5595,22 +5595,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876693</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>637.9025067654818</v>
+        <v>917.5010142286964</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9025067654818</v>
+        <v>748.5648313007895</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>598.4481918884537</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>450.5350983060606</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>450.5350983060606</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>283.3389990209405</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5908,13 +5908,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782948</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038334</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910808</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258105</v>
+        <v>2160.315914855603</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602303</v>
+        <v>1871.240688199801</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396416</v>
+        <v>1616.556199993914</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359455</v>
+        <v>1327.139029956953</v>
       </c>
       <c r="X22" t="n">
-        <v>1040.343550739252</v>
+        <v>1099.149479058936</v>
       </c>
       <c r="Y22" t="n">
-        <v>819.5509715957215</v>
+        <v>1099.149479058936</v>
       </c>
     </row>
     <row r="23">
@@ -5984,19 +5984,19 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>376.4492432300683</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>376.4492432300683</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>376.4492432300683</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>924.6979859831846</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>755.7618030552777</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>605.645163642942</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>457.7320700605488</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>310.8421225626385</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>143.6460232775184</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1106.346450813424</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836013</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>565.7099969556945</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,16 +6731,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6929,58 +6929,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7403,10 +7403,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7415,16 +7415,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,19 +7488,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1499.692613034015</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1210.275442997055</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>982.2858920990373</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>186.4490126143855</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>265.030432851514</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>175.0911063010452</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>92.33173539674587</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>32.89260457060504</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>45.0408928798632</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986258</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>123.7828069546813</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016455</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>33.93343655155044</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>56.43317025503575</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>90.96364621897283</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.5257599066253</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>72.1196935303861</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>98.55338150863676</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>65.33133491134413</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1055390.019247132</v>
+        <v>1055390.019247131</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1055390.019247131</v>
+        <v>1055390.019247132</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1055390.019247132</v>
+        <v>1055390.019247131</v>
       </c>
     </row>
     <row r="10">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335917.9865019029</v>
+        <v>335917.9865019032</v>
       </c>
       <c r="C2" t="n">
+        <v>369468.7964389272</v>
+      </c>
+      <c r="D2" t="n">
         <v>369468.7964389274</v>
-      </c>
-      <c r="D2" t="n">
-        <v>369468.7964389271</v>
       </c>
       <c r="E2" t="n">
         <v>363215.9698605026</v>
@@ -26326,34 +26326,34 @@
         <v>363215.9698605027</v>
       </c>
       <c r="G2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="H2" t="n">
         <v>363215.9698605027</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="J2" t="n">
         <v>363215.9698605028</v>
-      </c>
-      <c r="I2" t="n">
-        <v>363215.9698605027</v>
-      </c>
-      <c r="J2" t="n">
-        <v>363215.9698605029</v>
       </c>
       <c r="K2" t="n">
         <v>363215.9698605027</v>
       </c>
       <c r="L2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="M2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="N2" t="n">
         <v>363215.9698605026</v>
       </c>
-      <c r="M2" t="n">
-        <v>363215.9698605027</v>
-      </c>
-      <c r="N2" t="n">
-        <v>363215.9698605027</v>
-      </c>
       <c r="O2" t="n">
-        <v>363215.9698605029</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="P2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605028</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.025242651896029e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>89354.84311895978</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707412</v>
+        <v>6897.424496707369</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707362</v>
+        <v>6897.424496707368</v>
       </c>
       <c r="I4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="J4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="J4" t="n">
-        <v>6897.424496707381</v>
-      </c>
       <c r="K4" t="n">
-        <v>6897.424496707369</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670732</v>
+        <v>6897.424496707372</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707373</v>
+        <v>6897.424496707414</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707372</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707381</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707359</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-961126.412632821</v>
+        <v>-961312.8060213601</v>
       </c>
       <c r="C6" t="n">
+        <v>144621.2971674576</v>
+      </c>
+      <c r="D6" t="n">
         <v>144621.2971674577</v>
       </c>
-      <c r="D6" t="n">
-        <v>144621.2971674574</v>
-      </c>
       <c r="E6" t="n">
-        <v>-252289.4260846577</v>
+        <v>-252324.1640100933</v>
       </c>
       <c r="F6" t="n">
-        <v>255196.0155398882</v>
+        <v>255161.2776144525</v>
       </c>
       <c r="G6" t="n">
-        <v>255196.015539888</v>
+        <v>255161.2776144525</v>
       </c>
       <c r="H6" t="n">
-        <v>255196.0155398884</v>
+        <v>255161.2776144525</v>
       </c>
       <c r="I6" t="n">
-        <v>255196.0155398882</v>
+        <v>255161.2776144525</v>
       </c>
       <c r="J6" t="n">
-        <v>87590.83772990586</v>
+        <v>87556.09980447002</v>
       </c>
       <c r="K6" t="n">
-        <v>255196.0155398882</v>
+        <v>255161.2776144525</v>
       </c>
       <c r="L6" t="n">
-        <v>255196.0155398882</v>
+        <v>255161.2776144525</v>
       </c>
       <c r="M6" t="n">
-        <v>122588.7218109616</v>
+        <v>122553.9838855259</v>
       </c>
       <c r="N6" t="n">
-        <v>255196.0155398882</v>
+        <v>255161.2776144524</v>
       </c>
       <c r="O6" t="n">
-        <v>255196.0155398884</v>
+        <v>255161.2776144526</v>
       </c>
       <c r="P6" t="n">
-        <v>255196.0155398881</v>
+        <v>255161.2776144526</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>58.13166987262997</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>317.1880654596598</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>137.5292291442921</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27594,13 +27594,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>121.6554719172285</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>375.9555059780016</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>75.22826247924661</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>87.38002269874229</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>24.55728874774263</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,16 +27856,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>48.50459738989946</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>170.8846685936401</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28068,16 +28068,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>3.799888383097283</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>108.3561361697225</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28561,13 +28561,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>2.061875451984413e-12</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,13 +31841,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>433.9798411722591</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31859,7 +31859,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>153.972377511982</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32084,10 +32084,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>567.5882829286713</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34208,10 +34208,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402551</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>521.8736946105084</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>600.4551148476371</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215491</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>508.7132618620056</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35507,7 +35507,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>27.13475084531533</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,10 +35732,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>425.454249006653</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36139,10 +36139,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295242</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,7 +36285,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
